--- a/experiment data.xlsx
+++ b/experiment data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stockholmuniversity-my.sharepoint.com/personal/joka3224_win_su_se/Documents/Programme Courses/Masters Thesis/Real Thesis/Lab/thesis_land/exploit-t/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="10_ncr:40000_{B1B3E850-D2F7-4283-8278-A3912323D805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92DC7D85-D48C-44F1-BB35-B4ADA7279260}"/>
+  <xr:revisionPtr revIDLastSave="224" documentId="10_ncr:40000_{B1B3E850-D2F7-4283-8278-A3912323D805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB8298FE-944A-4D5D-A933-3E05524469EA}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="35">
   <si>
     <t xml:space="preserve">Service </t>
   </si>
@@ -128,13 +128,28 @@
   </si>
   <si>
     <t>success ratio</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Postgress-Sql</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>bukirwa_score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,16 +213,82 @@
       <name val="Avenir Next LT Pro"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F497D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -230,12 +311,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -261,41 +416,86 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -651,26 +851,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="9"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -855,389 +1055,845 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B9D42B-67A2-4ACD-AD07-C8DBA1327A89}">
-  <dimension ref="B2:G51"/>
+  <dimension ref="B1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="11"/>
-    <col min="2" max="2" width="55.5546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="55.5546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="10" customWidth="1"/>
+    <col min="4" max="6" width="8.88671875" style="9"/>
+    <col min="7" max="7" width="9.44140625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="I2" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="35"/>
+      <c r="L2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="33"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="35"/>
+    </row>
+    <row r="3" spans="2:17" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="C3" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="13">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="C4" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="22">
+        <v>10</v>
+      </c>
+      <c r="K4" s="22">
+        <v>7.5</v>
+      </c>
+      <c r="L4" s="22">
+        <v>1</v>
+      </c>
+      <c r="M4" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="O4" s="22">
+        <f>L4*J4</f>
+        <v>10</v>
+      </c>
+      <c r="P4" s="22">
+        <f>O4*M4</f>
+        <v>5</v>
+      </c>
+      <c r="Q4" s="22">
+        <f>O4*N4</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="C5" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="22">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L5" s="22">
+        <v>1</v>
+      </c>
+      <c r="M5" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="N5" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="O5" s="22">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="P5" s="22">
+        <f>O5*M5</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="Q5" s="22">
+        <f t="shared" ref="Q5:Q8" si="0">O5*N5</f>
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="I6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="22">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K6" s="22">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L6" s="22">
+        <v>1</v>
+      </c>
+      <c r="M6" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="O6" s="22">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="P6" s="22">
+        <f t="shared" ref="P6:P8" si="1">O6*M6</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q6" s="22">
+        <f t="shared" si="0"/>
+        <v>0.49000000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
+      <c r="I7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="22">
+        <v>10</v>
+      </c>
+      <c r="K7" s="22">
+        <v>10</v>
+      </c>
+      <c r="L7" s="22">
+        <v>1</v>
+      </c>
+      <c r="M7" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="O7" s="22">
+        <v>10</v>
+      </c>
+      <c r="P7" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q7" s="22">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="22">
+        <v>9</v>
+      </c>
+      <c r="L8" s="22">
+        <v>1</v>
+      </c>
+      <c r="M8" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="O8" s="22">
+        <v>9</v>
+      </c>
+      <c r="P8" s="22">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="Q8" s="22">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
+    <row r="12" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
+      <c r="C12" s="24">
+        <v>1</v>
+      </c>
+      <c r="D12" s="24">
+        <v>1</v>
+      </c>
+      <c r="E12" s="24">
+        <v>1</v>
+      </c>
+      <c r="F12" s="24">
+        <v>1</v>
+      </c>
+      <c r="G12" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+      <c r="C13" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="C14" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="C18" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="C19" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="C20" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="C21" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="C22" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="25"/>
+      <c r="C23" s="26">
+        <f>SUM(C18:C22)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="26">
+        <f t="shared" ref="D23:E23" si="2">SUM(D18:D22)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="26">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000002</v>
+      </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="C26" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="C27" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="C28" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="C29" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+      <c r="C30" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="25"/>
+      <c r="C31" s="26">
+        <f>SUM(C26:C30)</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="26">
+        <f>SUM(D26:D30)</f>
+        <v>0.25</v>
+      </c>
+      <c r="E31" s="26">
+        <f>SUM(E26:E30)</f>
+        <v>0.15000000000000002</v>
+      </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="16" t="s">
+      <c r="D32" s="26"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C33" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D33" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E33" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="14" t="s">
+      <c r="C34" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="14" t="s">
+      <c r="C35" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="14" t="s">
+      <c r="C36" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="14" t="s">
+      <c r="C37" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="C38" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="12">
+        <v>0</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="25"/>
+      <c r="C39" s="26">
+        <f>SUM(C34:C38)</f>
+        <v>1</v>
+      </c>
+      <c r="D39" s="26">
+        <f>SUM(D34:D38)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="26">
+        <f>SUM(E34:E38)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C41" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D41" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E41" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="14" t="s">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="14" t="s">
+      <c r="C42" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="D42" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="14" t="s">
+      <c r="C43" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E43" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="14" t="s">
+      <c r="C44" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="14" t="s">
+      <c r="C45" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="16" t="s">
+      <c r="C46" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="12">
+        <v>0</v>
+      </c>
+      <c r="E46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="25"/>
+      <c r="C47" s="26">
+        <f>SUM(C42:C46)</f>
+        <v>1</v>
+      </c>
+      <c r="D47" s="9">
+        <f>SUM(D42:D46)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="9">
+        <f>SUM(E42:E46)</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C49" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D49" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E49" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="14" t="s">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="14" t="s">
+      <c r="C50" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="D50" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="14" t="s">
+      <c r="C51" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D51" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E51" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="14" t="s">
+      <c r="C52" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D52" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="14" t="s">
+      <c r="C53" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="D53" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E53" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
+      <c r="C54" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="12">
+        <v>0</v>
+      </c>
+      <c r="E54" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C55" s="25">
+        <f>SUM(C50:C54)</f>
+        <v>1</v>
+      </c>
+      <c r="D55" s="25">
+        <f>SUM(D50:D54)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="25">
+        <f>SUM(E50:E54)</f>
+        <v>0.05</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/experiment data.xlsx
+++ b/experiment data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stockholmuniversity-my.sharepoint.com/personal/joka3224_win_su_se/Documents/Programme Courses/Masters Thesis/Real Thesis/Lab/thesis_land/exploit-t/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="224" documentId="10_ncr:40000_{B1B3E850-D2F7-4283-8278-A3912323D805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB8298FE-944A-4D5D-A933-3E05524469EA}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="10_ncr:40000_{B1B3E850-D2F7-4283-8278-A3912323D805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7877CBA-6688-4EE7-9368-DB3C666CFBAC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vuln_ex_score" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="30">
   <si>
     <t xml:space="preserve">Service </t>
   </si>
@@ -128,28 +128,13 @@
   </si>
   <si>
     <t>success ratio</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Postgress-Sql</t>
-  </si>
-  <si>
-    <t>sp</t>
-  </si>
-  <si>
-    <t>bukirwa_score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,82 +198,16 @@
       <name val="Avenir Next LT Pro"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1F497D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -311,86 +230,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -443,59 +288,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -851,26 +654,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="18"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1055,10 +858,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B9D42B-67A2-4ACD-AD07-C8DBA1327A89}">
-  <dimension ref="B1:Q55"/>
+  <dimension ref="B2:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:Q8"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1071,246 +874,55 @@
     <col min="8" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="35"/>
-    </row>
-    <row r="3" spans="2:17" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="11">
         <v>0.05</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="11">
         <v>0.1</v>
       </c>
-      <c r="I4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="22">
-        <v>10</v>
-      </c>
-      <c r="K4" s="22">
-        <v>7.5</v>
-      </c>
-      <c r="L4" s="22">
-        <v>1</v>
-      </c>
-      <c r="M4" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="N4" s="22">
-        <v>0.15</v>
-      </c>
-      <c r="O4" s="22">
-        <f>L4*J4</f>
-        <v>10</v>
-      </c>
-      <c r="P4" s="22">
-        <f>O4*M4</f>
-        <v>5</v>
-      </c>
-      <c r="Q4" s="22">
-        <f>O4*N4</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="11">
         <v>0.1</v>
       </c>
-      <c r="I5" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="22">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L5" s="22">
-        <v>1</v>
-      </c>
-      <c r="M5" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="N5" s="22">
-        <v>0.15</v>
-      </c>
-      <c r="O5" s="22">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="P5" s="22">
-        <f>O5*M5</f>
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="Q5" s="22">
-        <f t="shared" ref="Q5:Q8" si="0">O5*N5</f>
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="11">
         <v>0.25</v>
       </c>
-      <c r="I6" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="22">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="K6" s="22">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L6" s="22">
-        <v>1</v>
-      </c>
-      <c r="M6" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="O6" s="22">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="P6" s="22">
-        <f t="shared" ref="P6:P8" si="1">O6*M6</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Q6" s="22">
-        <f t="shared" si="0"/>
-        <v>0.49000000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="11">
         <v>0.5</v>
       </c>
-      <c r="I7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="22">
-        <v>10</v>
-      </c>
-      <c r="K7" s="22">
-        <v>10</v>
-      </c>
-      <c r="L7" s="22">
-        <v>1</v>
-      </c>
-      <c r="M7" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="N7" s="22">
-        <v>0.15</v>
-      </c>
-      <c r="O7" s="22">
-        <v>10</v>
-      </c>
-      <c r="P7" s="22">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="Q7" s="22">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I8" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="22">
-        <v>9</v>
-      </c>
-      <c r="L8" s="22">
-        <v>1</v>
-      </c>
-      <c r="M8" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="N8" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="O8" s="22">
-        <v>9</v>
-      </c>
-      <c r="P8" s="22">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="Q8" s="22">
-        <f t="shared" si="0"/>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
@@ -1330,63 +942,63 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="19">
         <v>1</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="19">
         <v>1</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="19">
         <v>1</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="19">
         <v>1</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="19">
         <v>0.5</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="19">
         <v>0.5</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="19">
         <v>0.5</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="19">
         <v>0.5</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="19">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="19">
         <v>0.15</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="19">
         <v>0.25</v>
       </c>
-      <c r="E14" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="F14" s="24">
+      <c r="E14" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="19">
         <v>0.15</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="19">
         <v>0.05</v>
       </c>
     </row>
@@ -1394,13 +1006,13 @@
       <c r="B17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1475,17 +1087,16 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="25"/>
-      <c r="C23" s="26">
+      <c r="C23" s="16">
         <f>SUM(C18:C22)</f>
         <v>1</v>
       </c>
-      <c r="D23" s="26">
-        <f t="shared" ref="D23:E23" si="2">SUM(D18:D22)</f>
+      <c r="D23" s="16">
+        <f t="shared" ref="D23:E23" si="0">SUM(D18:D22)</f>
         <v>0.5</v>
       </c>
-      <c r="E23" s="26">
-        <f t="shared" si="2"/>
+      <c r="E23" s="16">
+        <f t="shared" si="0"/>
         <v>0.15000000000000002</v>
       </c>
     </row>
@@ -1493,13 +1104,13 @@
       <c r="B25" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1574,34 +1185,33 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="25"/>
-      <c r="C31" s="26">
+      <c r="C31" s="16">
         <f>SUM(C26:C30)</f>
         <v>1</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="16">
         <f>SUM(D26:D30)</f>
         <v>0.25</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="16">
         <f>SUM(E26:E30)</f>
         <v>0.15000000000000002</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D32" s="26"/>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1676,16 +1286,15 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="25"/>
-      <c r="C39" s="26">
+      <c r="C39" s="16">
         <f>SUM(C34:C38)</f>
         <v>1</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="16">
         <f>SUM(D34:D38)</f>
         <v>0.5</v>
       </c>
-      <c r="E39" s="26">
+      <c r="E39" s="16">
         <f>SUM(E34:E38)</f>
         <v>0.05</v>
       </c>
@@ -1694,13 +1303,13 @@
       <c r="B41" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1775,8 +1384,7 @@
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="25"/>
-      <c r="C47" s="26">
+      <c r="C47" s="16">
         <f>SUM(C42:C46)</f>
         <v>1</v>
       </c>
@@ -1793,13 +1401,13 @@
       <c r="B49" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1874,26 +1482,20 @@
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C55" s="25">
+      <c r="C55" s="9">
         <f>SUM(C50:C54)</f>
         <v>1</v>
       </c>
-      <c r="D55" s="25">
+      <c r="D55" s="9">
         <f>SUM(D50:D54)</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="25">
+      <c r="E55" s="9">
         <f>SUM(E50:E54)</f>
         <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/experiment data.xlsx
+++ b/experiment data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stockholmuniversity-my.sharepoint.com/personal/joka3224_win_su_se/Documents/Programme Courses/Masters Thesis/Real Thesis/Lab/thesis_land/exploit-t/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="225" documentId="10_ncr:40000_{B1B3E850-D2F7-4283-8278-A3912323D805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7877CBA-6688-4EE7-9368-DB3C666CFBAC}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="10_ncr:40000_{B1B3E850-D2F7-4283-8278-A3912323D805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1E1E37D-D461-475B-BF30-0231A80F0CE6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42195" yWindow="1770" windowWidth="15540" windowHeight="12390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vuln_ex_score" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
   <si>
     <t xml:space="preserve">Service </t>
   </si>
@@ -128,13 +128,28 @@
   </si>
   <si>
     <t>success ratio</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>sr</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>es</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +213,22 @@
       <name val="Avenir Next LT Pro"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -207,7 +238,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -230,12 +261,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -299,6 +359,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -860,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B9D42B-67A2-4ACD-AD07-C8DBA1327A89}">
   <dimension ref="B2:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,12 +954,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="11">
         <v>0.05</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -897,6 +972,9 @@
       <c r="C4" s="11">
         <v>0.1</v>
       </c>
+      <c r="D4" s="23" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
@@ -905,6 +983,9 @@
       <c r="C5" s="11">
         <v>0.1</v>
       </c>
+      <c r="D5" s="24" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
@@ -913,13 +994,19 @@
       <c r="C6" s="11">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D6" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="11">
         <v>0.5</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
